--- a/Revision - DSA.xlsx
+++ b/Revision - DSA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toish\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A1609-F0CC-4DF7-AFB1-7BCB2E1C7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B600091-47DE-441A-A82A-4D30E844E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB0ECDAB-DEEF-4899-8A94-D32E50EB4F7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FB0ECDAB-DEEF-4899-8A94-D32E50EB4F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaler DSA" sheetId="1" r:id="rId1"/>
+    <sheet name="Random Problem Solving" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Week Number</t>
   </si>
@@ -220,11 +221,6 @@
   </si>
   <si>
     <t>Q1. Amazon,  Media.net, Scaler, Google, DirectI</t>
-  </si>
-  <si>
-    <t>1.) Given an array where every number is repeated twice except two numbers find those numbers. (Important)
-2.) Smallest XOR (Important)
-3.) Reverse Bits</t>
   </si>
   <si>
     <t>Advance DSA - Bit Manipulations 1</t>
@@ -360,12 +356,272 @@
       <t>- Idea - Find all difference count of bits in all possible pairs. If we check for all possible pairs then the TC will be more. So, we should make use of some other technique. Contribution technique for each bit position would help here. Total numbers (n) and total bits - 32 (or as per the max number) ith bit set count in the n numbers (c1) and unset count (n-c1).. then it will add to the answer = 2 * (c1) * (n - c1) because f (i, j) is different from f(j, i)</t>
     </r>
   </si>
+  <si>
+    <t>More questions</t>
+  </si>
+  <si>
+    <t>Q2. LinkedIn, ShareChat
+Q3. Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Given N elements - all numbers appear twice except two numbers which appear once. Find the two single elements. (Use concept of set bit in XOR result and it should be different in the two single elements and then divide the array into two different groups to identify the answers.) TC O(N + log max) SC O(1)
+2.) Given an array of size N containing all elements from 1 to N+2 except 2 elements. Find the missing elements. (without modifying the original array)
+3.) Given an array of N elements. Calculate the sum of XOR of all the pairs.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.) Given an array where every number is repeated twice except two numbers find those numbers. (Important)
+2.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smallest XOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Find a number x whose XOR with input number A is smallest and also the total set bits in x should be equal to B (Important) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Idea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- For XOR to be minimum of two numbers the MSB bits should not be unset. So, we should try to form a number with bits set in it starting from left (bit pos 32, 31, 30...) if that position has a set bit in original number as well. and decrease the count B each time. if there is still B greater than 0, than we will start from right this time 0, 1, 2,... and start setting the bits if it is not already set and decrease B count by 1 each time.
+3.) Reverse Bits</t>
+    </r>
+  </si>
+  <si>
+    <t>Problem Solving-2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Two Pointer Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Since the array is not sorted and we need to find the maximum area of water...
+It requires two parameters (height and width) both. We need to some how reduce this selection criteria to only 1.
+Width will be maximum between the farthest points of the array.
+So lets take two pointers to point to those indexes 0 and n-1
+Now which pointer should we move... the one with less height we should ignore that element because it can not give a higher answer with any of the other indices of the array (as width will be further reduced).
+So based on this idea we should proceed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Idea - Application of binary search (Not sorted array but we find min and max of the array to create our search space)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To find the kth smallest element or largest element
+we need to count exactly the number of elements less than that value
+in order to do a count check it will take O(n^2) iterations
+so to optimize it, we need to find the max and min elements of the array
+once max and min elements are identified use that as a search space [min, max] in original array
+calculate mid element every time and check the count of elements less than mid
+in this way we would be able to reduce the time complexity to O(N * log(range)) 
+how to identify the search space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same code will work for both repeated and non-repeated elements</t>
+    </r>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/k-th-element-two-sorted-arrays/
+https://leetcode.com/discuss/interview-question/351782/Google-or-Phone-Screen-or-Kth-Largest-Element-of-Two-Sorted-Arrays</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>https://github.com/ishan-aggarwal/scaler-oct21/blob/main/leetcode/others/ContainerWithMostWater.java</t>
+  </si>
+  <si>
+    <t>https://github.com/ishan-aggarwal/scaler-oct21/blob/main/leetcode/others/KthLargestElementInArray.java</t>
+  </si>
+  <si>
+    <t>https://github.com/ishan-aggarwal/scaler-oct21/blob/main/leetcode/others/KthPosElementTwoSortedArrays.java</t>
+  </si>
+  <si>
+    <t>Given a N*M row wise sorted matrix, find the kth smallest element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Idea - Application of binary search (It will be applied on two different sets of input)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+// First for the imaginary merged array with Min and Max elements as the input for BS array search space
+// Second for individual arrays to find the count of smaller elements than given element
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// overall TC - O(log(range) * (log m + log n))
+// TC - O(log(range) * (log mn))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find the range space to be used for performing binary search operation
+count of smaller elements can again be done using BS
+because the given input arrays are sorted
+so instead of doing linear search to count the smaller elements
+we can do binary search operation to find the total elements less than given
+element
+count smaller is like finding floor or Upper bound
+ans = mid + 1; // reason for selecting mid+1 here is
+because it is 0 based
+lets say first element is smaller than the ele
+then ans would be returned as 0 instead of 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exactly same approach as above. Here instead of two sorted input arrays, now we have n sorted arrays of size m. 
+// overall TC - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(log(range) * (n * log m))</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/ishan-aggarwal/scaler-oct21/blob/main/leetcode/others/KthPosElementInRowWiseSortedMatrix.java</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +637,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +667,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -576,11 +854,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +959,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,41 +1080,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -982,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B134FBE-2C8C-4617-936A-DED1E5B3BB97}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,8 +1408,8 @@
     <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.28515625" style="15" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5703125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="31" style="25" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31" style="19" customWidth="1"/>
     <col min="8" max="8" width="23.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1014,18 +1429,18 @@
       <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1040,10 +1455,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="30"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1056,10 +1471,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="30"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1072,10 +1487,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="30"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -1090,10 +1505,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="30"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1112,10 +1527,10 @@
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1129,15 +1544,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="51">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -1148,10 +1563,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1160,10 +1575,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1172,7 +1587,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1184,7 +1599,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1196,7 +1611,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1208,7 +1623,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1220,7 +1635,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1232,7 +1647,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1244,7 +1659,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1256,7 +1671,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1268,7 +1683,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1280,7 +1695,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1292,7 +1707,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1304,7 +1719,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1316,7 +1731,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1328,7 +1743,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1340,7 +1755,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1352,7 +1767,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1364,7 +1779,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1376,7 +1791,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="30"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1388,7 +1803,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="30"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1400,7 +1815,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="30"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1412,7 +1827,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1424,7 +1839,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1436,7 +1851,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1448,7 +1863,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -1459,8 +1874,8 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="31"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -1471,8 +1886,8 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="31"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -1483,8 +1898,8 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="31"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -1495,8 +1910,8 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="31"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1507,11 +1922,11 @@
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="31"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="54">
         <v>15</v>
       </c>
       <c r="B39" s="1">
@@ -1521,11 +1936,11 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="31"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -1533,51 +1948,57 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>16</v>
+      </c>
+      <c r="B42" s="27">
+        <v>41</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="E42" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="31"/>
+      <c r="F42" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -1585,11 +2006,11 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="31"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -1597,8 +2018,8 @@
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="31"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1609,8 +2030,8 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="31"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1621,8 +2042,8 @@
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="31"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1633,8 +2054,8 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="31"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1645,8 +2066,8 @@
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="31"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1657,8 +2078,8 @@
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="31"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
@@ -1669,8 +2090,8 @@
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="31"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
@@ -1681,8 +2102,8 @@
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="31"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1693,8 +2114,8 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="31"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1705,8 +2126,8 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="31"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -1717,8 +2138,8 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="31"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -1729,8 +2150,8 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="31"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -1741,8 +2162,8 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="31"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
@@ -1753,8 +2174,8 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="31"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
@@ -1765,8 +2186,8 @@
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="31"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
@@ -1777,8 +2198,8 @@
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="31"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
@@ -1789,8 +2210,8 @@
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="31"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
@@ -1801,8 +2222,8 @@
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="31"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
@@ -1813,8 +2234,8 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="31"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
@@ -1825,8 +2246,8 @@
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="31"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
@@ -1837,8 +2258,8 @@
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="31"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
@@ -1849,8 +2270,8 @@
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="31"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
@@ -1861,8 +2282,8 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="31"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
@@ -1873,8 +2294,8 @@
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="31"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
@@ -1885,8 +2306,8 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="31"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
@@ -1897,8 +2318,8 @@
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="31"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
@@ -1909,8 +2330,8 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="31"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -1921,8 +2342,8 @@
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="31"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
@@ -1933,8 +2354,8 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="31"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
@@ -1945,8 +2366,8 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="31"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
@@ -1957,8 +2378,8 @@
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="31"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
@@ -1969,8 +2390,8 @@
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="31"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
@@ -1981,8 +2402,8 @@
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="31"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -1993,8 +2414,8 @@
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="31"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
@@ -2005,8 +2426,8 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="31"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
@@ -2017,8 +2438,8 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="31"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
@@ -2029,8 +2450,8 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="31"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
@@ -2041,8 +2462,8 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="31"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
@@ -2053,8 +2474,8 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="31"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
@@ -2065,8 +2486,8 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="31"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
@@ -2077,8 +2498,8 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
@@ -2089,8 +2510,8 @@
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="31"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
@@ -2101,8 +2522,8 @@
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="31"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
@@ -2113,8 +2534,8 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="31"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
@@ -2125,8 +2546,8 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="31"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
@@ -2137,8 +2558,8 @@
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="31"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
@@ -2149,8 +2570,8 @@
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="31"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
@@ -2161,8 +2582,8 @@
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="31"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
@@ -2173,8 +2594,8 @@
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="31"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
@@ -2185,8 +2606,8 @@
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="31"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
@@ -2197,8 +2618,8 @@
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="31"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
@@ -2209,8 +2630,8 @@
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="31"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
@@ -2221,8 +2642,8 @@
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="31"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
@@ -2233,8 +2654,8 @@
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="31"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
@@ -2245,8 +2666,8 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="31"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
@@ -2257,8 +2678,8 @@
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="31"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
@@ -2269,8 +2690,8 @@
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="31"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
@@ -2281,8 +2702,8 @@
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="31"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
@@ -2293,8 +2714,8 @@
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="31"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
@@ -2305,8 +2726,8 @@
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="31"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
@@ -2317,8 +2738,8 @@
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="31"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
@@ -2329,8 +2750,8 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="31"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
@@ -2341,8 +2762,8 @@
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="31"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
@@ -2353,8 +2774,8 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="31"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
@@ -2365,8 +2786,8 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="31"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
@@ -2377,8 +2798,8 @@
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="31"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
@@ -2389,8 +2810,8 @@
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="31"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
@@ -2401,8 +2822,8 @@
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="31"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
@@ -2413,8 +2834,8 @@
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="31"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
@@ -2425,8 +2846,8 @@
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="31"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
@@ -2437,8 +2858,8 @@
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="31"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
@@ -2449,8 +2870,8 @@
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="31"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
@@ -2461,8 +2882,8 @@
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="31"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
@@ -2473,8 +2894,8 @@
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="31"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
@@ -2485,8 +2906,8 @@
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="31"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
@@ -2496,9 +2917,9 @@
       <c r="C119" s="11"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="32"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2511,4 +2932,1005 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61364941-306A-4272-A042-87B01B627E34}">
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="37" customWidth="1"/>
+    <col min="3" max="3" width="61" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>44654</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>44654</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>44654</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>44654</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="47"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="47"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="47"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="47"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="47"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="47"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="47"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="47"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="47"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="47"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="47"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="47"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="47"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="47"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="47"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="47"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="47"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="47"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="47"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="47"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="47"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="47"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="47"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="47"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="47"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="48"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{59230CA2-9C34-4232-9287-6ED6BA3443DC}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{90AD3015-FEE9-4986-8450-AEF21F302CEE}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{3B0469BC-581A-45E7-A6FD-4EBE2EFD1CA6}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{7B6AC603-1003-4EEC-9E21-410499357EA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Revision - DSA.xlsx
+++ b/Revision - DSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toish\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B600091-47DE-441A-A82A-4D30E844E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013063C7-2493-456A-8831-C39C113EEB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FB0ECDAB-DEEF-4899-8A94-D32E50EB4F7D}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="28800" windowHeight="14115" xr2:uid="{FB0ECDAB-DEEF-4899-8A94-D32E50EB4F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaler DSA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Week Number</t>
   </si>
@@ -370,56 +370,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.) Given an array where every number is repeated twice except two numbers find those numbers. (Important)
-2.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smallest XOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Find a number x whose XOR with input number A is smallest and also the total set bits in x should be equal to B (Important) - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Idea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- For XOR to be minimum of two numbers the MSB bits should not be unset. So, we should try to form a number with bits set in it starting from left (bit pos 32, 31, 30...) if that position has a set bit in original number as well. and decrease the count B each time. if there is still B greater than 0, than we will start from right this time 0, 1, 2,... and start setting the bits if it is not already set and decrease B count by 1 each time.
-3.) Reverse Bits</t>
-    </r>
-  </si>
-  <si>
     <t>Problem Solving-2</t>
   </si>
   <si>
@@ -615,6 +565,119 @@
   </si>
   <si>
     <t>https://github.com/ishan-aggarwal/scaler-oct21/blob/main/leetcode/others/KthPosElementInRowWiseSortedMatrix.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.) Given an array where every number is repeated twice except two numbers find those numbers. (Important)
+2.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smallest XOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Find a number x whose XOR with input number A is smallest and also the total set bits in x should be equal to B (Important) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Idea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- For XOR to be minimum of two numbers the MSB bits should not be unset. So, we should try to form a number with bits set in it starting from left (bit pos 32, 31, 30...) if that position has a set bit in original number as well. and decrease the count B each time. if there is still B greater than 0, than we will start from right this time 0, 1, 2,... and start setting the bits if it is not already set and decrease B count by 1 each time.
+3.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reverse Bits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Approach)
+1.) Initialize the reverse (answer) with 0
+2.) Iterate over the 32 bits [0, 31]
+3.) Check if ith bit is set in number a. If yes, set the (31-i)th bit in reverse number</t>
+    </r>
+  </si>
+  <si>
+    <t>Time Complexity - 1</t>
+  </si>
+  <si>
+    <t>Time Complexity - 2</t>
+  </si>
+  <si>
+    <t>Arrays &amp; Dynamic Arrays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAX value of N     	  Time complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   10^8               O(N) Border case
+   10^7               O(N) Might be accepted
+   10^6               O(N) Perfect
+   10^5               O(N * logN)
+   10^4               O(N ^ 2)
+   10^2               O(N ^ 3)
+   10^9               O(logN) or Sqrt(N)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1397,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B134FBE-2C8C-4617-936A-DED1E5B3BB97}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1592,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -1544,22 +1607,26 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1570,7 +1637,9 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1582,7 +1651,9 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1590,7 +1661,9 @@
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="51">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1602,7 +1675,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -1614,7 +1687,7 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2922,12 +2995,13 @@
       <c r="H119" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2938,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61364941-306A-4272-A042-87B01B627E34}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2968,13 +3042,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2982,22 +3056,22 @@
         <v>44654</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3005,22 +3079,22 @@
         <v>44654</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3028,22 +3102,22 @@
         <v>44654</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -3051,22 +3125,22 @@
         <v>44654</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
